--- a/Documents/Performance Analysis/PerformanceAnalysis.xlsx
+++ b/Documents/Performance Analysis/PerformanceAnalysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinleman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinleman/GitHub/DebrisDiskSimulation/Documents/Performance Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745297BF-9B89-9B43-8035-9B9CE28D0383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D4F8D8-87CA-3D48-A3AE-94B2653E3C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1600" windowWidth="28800" windowHeight="17500" xr2:uid="{B0F2AAD0-41C3-0349-A059-D659D23C7815}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{B0F2AAD0-41C3-0349-A059-D659D23C7815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Run</t>
   </si>
@@ -102,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -136,7 +136,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4BCEB6-B1AF-CE49-85DA-F7277F4EF62A}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,163 +1434,176 @@
         <v>49.095760131052572</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <f>AVERAGE(G23:G25)</f>
+        <v>1.5566666666666666</v>
+      </c>
+      <c r="C43">
+        <f>STDEV(G2:G25)</f>
+        <v>1.6441304802940313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>4</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="B45">
-        <v>687</v>
-      </c>
-      <c r="C45">
-        <v>616</v>
-      </c>
-      <c r="D45">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E45">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F45">
-        <v>59.01</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="B46">
-        <v>73</v>
+        <v>687</v>
       </c>
       <c r="C46">
-        <v>59</v>
+        <v>616</v>
       </c>
       <c r="D46">
-        <v>1.03</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E46">
-        <v>1.52</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F46">
-        <v>571.65</v>
+        <v>59.01</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="B47">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C47">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D47">
-        <v>2.0499999999999998</v>
+        <v>1.03</v>
       </c>
       <c r="E47">
-        <v>3.01</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1130</v>
+        <v>1.52</v>
+      </c>
+      <c r="F47">
+        <v>571.65</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>40000000</v>
+        <v>20000000</v>
       </c>
       <c r="B48">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D48">
-        <v>4.07</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E48">
-        <v>5.66</v>
+        <v>3.01</v>
       </c>
       <c r="F48" s="1">
-        <v>2320</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>60000000</v>
+        <v>40000000</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>6.07</v>
+        <v>4.07</v>
       </c>
       <c r="E49">
-        <v>8.44</v>
+        <v>5.66</v>
       </c>
       <c r="F49" s="1">
-        <v>3520</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>80000000</v>
+        <v>60000000</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>8.43</v>
+        <v>6.07</v>
       </c>
       <c r="E50">
-        <v>11.68</v>
+        <v>8.44</v>
       </c>
       <c r="F50" s="1">
-        <v>4760</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>8.43</v>
+      </c>
+      <c r="E51">
+        <v>11.68</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>100000000</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>8</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>3</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>10.44</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>14.88</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>6000</v>
       </c>
     </row>
